--- a/Database/Schema/Food-Online-Schema.xlsx
+++ b/Database/Schema/Food-Online-Schema.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47CCED2-D23A-4F8E-A382-B264ECFAF2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B9D1FE-452E-4C84-A032-2B7B51D49971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,71 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>21/12/2021</t>
   </si>
   <si>
-    <t>UserAccount</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>DisableYN</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>RoleName</t>
-  </si>
-  <si>
-    <t>TotalCost</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
-    <t>PaidYN</t>
-  </si>
-  <si>
     <t>Orders</t>
   </si>
   <si>
-    <t>ProductType</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>UserID (PK)</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>MiddleName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>RoleID (PK)</t>
-  </si>
-  <si>
-    <t>UserID (FK)</t>
-  </si>
-  <si>
-    <t>InvoiceID (PK)</t>
-  </si>
-  <si>
     <r>
       <t>OrderID (PK)</t>
     </r>
@@ -126,21 +69,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">UserID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INT</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">ProductID (FK) </t>
     </r>
     <r>
@@ -156,7 +84,412 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">OrderedYN </t>
+      <t xml:space="preserve">InvoiceID (FK) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Description </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ProductID (PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ProductName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Price </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FLOAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FLOAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CreateDate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DATETIME</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UpdateDate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DATETIME</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ProductTypeID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QuantitySold </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">InventoryNumber </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Size </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FLOAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UserAccountTypeID (PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UserAccountTypeName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PhoneNumber </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RoleID (FK) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UserAccountTypeID (FK) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ProductTypeName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LastName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MiddleName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FirstName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UserName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UserID (PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RoleID (PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RoleName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Description </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IsDisabled </t>
     </r>
     <r>
       <rPr>
@@ -171,22 +504,145 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">InvoiceID (FK) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Description </t>
+      <t xml:space="preserve">IsDeleted </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOOL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IsPaid </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOOL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">InvoiceID (PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UserID (FK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> INT</t>
+    </r>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Invoices</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>ProductTypes</t>
+  </si>
+  <si>
+    <t>UserAccountTypes</t>
+  </si>
+  <si>
+    <t>UserAccounts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IsOrdered </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOOL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IsCancelled </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOOL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ProductTypeID (PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HouseNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">StreetName </t>
     </r>
     <r>
       <rPr>
@@ -200,29 +656,8 @@
     </r>
   </si>
   <si>
-    <t>UpdateDate DATETIME</t>
-  </si>
-  <si>
-    <t>CreateDate DATETIME</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ProductID (PK) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ProductName </t>
+    <r>
+      <t xml:space="preserve">Ward </t>
     </r>
     <r>
       <rPr>
@@ -237,145 +672,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Price </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FLOAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Weight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> FLOAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CreateDate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DATETIME</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UpdateDate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DATETIME</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ProductTypeID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">QuantitySold </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">InventoryNumber </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Size </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FLOAT</t>
-    </r>
-  </si>
-  <si>
-    <t>UserAccountType</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UserAccountTypeID (PK) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UserAccountTypeName </t>
+      <t xml:space="preserve">District </t>
     </r>
     <r>
       <rPr>
@@ -390,7 +687,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">PhoneNumber </t>
+      <t xml:space="preserve">City </t>
     </r>
     <r>
       <rPr>
@@ -405,40 +702,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">RoleID (FK) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UserAccountTypeID (FK) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INT</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">DeliveryAddress </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ProductTypeName </t>
+      <t xml:space="preserve">Country </t>
     </r>
     <r>
       <rPr>
@@ -453,17 +717,17 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">DeleteYN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BOOL</t>
+      <t xml:space="preserve">Quantity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
     </r>
   </si>
 </sst>
@@ -548,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -556,6 +820,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,17 +1160,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.81640625" bestFit="1" customWidth="1"/>
@@ -919,244 +1185,250 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>11</v>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D26" s="2" t="s">
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="F28" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="F29" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C32" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C33" s="2" t="s">
-        <v>28</v>
+      <c r="C29" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Schema/Food-Online-Schema.xlsx
+++ b/Database/Schema/Food-Online-Schema.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B9D1FE-452E-4C84-A032-2B7B51D49971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C03924-9EC7-47D1-BF20-9CEE57012F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,21 +597,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">IsCancelled </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BOOL</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">ProductTypeID (PK) </t>
     </r>
     <r>
@@ -728,6 +713,21 @@
         <scheme val="minor"/>
       </rPr>
       <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Status </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR</t>
     </r>
   </si>
 </sst>
@@ -812,16 +812,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1163,7 +1160,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1204,7 +1201,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
@@ -1252,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1266,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1313,7 +1310,7 @@
         <v>16</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1326,8 +1323,8 @@
       <c r="G15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>48</v>
+      <c r="I15" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1340,8 +1337,8 @@
       <c r="G16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>49</v>
+      <c r="I16" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
@@ -1351,33 +1348,33 @@
       <c r="D17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>50</v>
+      <c r="I17" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>51</v>
+      <c r="I18" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>52</v>
+      <c r="I19" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
@@ -1414,7 +1411,6 @@
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C27" s="2" t="s">
@@ -1427,7 +1423,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="2" t="s">
         <v>34</v>
       </c>
     </row>
